--- a/doc/SD/FI-SD-理财交易系统数据结构文档V1.0.xlsx
+++ b/doc/SD/FI-SD-理财交易系统数据结构文档V1.0.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\理财通\smp\doc\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据表列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +34,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
+    <t>注册用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储注册用户的基本信息，包括用户名、密码、身份证、银行卡、状态等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front_user_register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front_user_member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活码信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_activate_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户激活码信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储用户购买的激活码信息，包括已使用、未使用等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储会员分配的钱包信息，包括会员级别、账户总值、团队人数、待返钱包、本息钱包等信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_s_question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统常见问题信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储系统常见问题信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_s_notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统公告信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储系统发出的通知信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_s_noticetext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统公告内容信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储系统发出的公告的详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_s_questiontext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统问题内容信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储系统录入的问题详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_s_feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_s_feedreply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统意见留言信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_s_feedattach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储系统反馈的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储问题的留言信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储系统意见的附件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统意见反馈回复表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统意见留言附件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_ inject_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储注入资金订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_ pickup_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储提出资金订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_trade_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注入资金订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出资金订单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易信息日志表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储交易日志信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,8 +266,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -112,21 +337,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,354 +672,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="16"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="2:5" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="E62" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
